--- a/TDD/Users.xlsx
+++ b/TDD/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Automatización\DesafioAutomatizacion\TDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B2A76-79F2-4DAC-BFA2-3A8FFE4BF5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806F5B8-FC90-4615-9BD9-7BBE1FF5A204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,29 +216,29 @@
     <t>${alias}</t>
   </si>
   <si>
-    <t>prueba18@prueba18.com</t>
-  </si>
-  <si>
-    <t>prueba19@prueba19.com</t>
-  </si>
-  <si>
-    <t>prueba20@prueba20.com</t>
-  </si>
-  <si>
-    <t>prueba21@prueba21.com</t>
-  </si>
-  <si>
-    <t>prueba22@prueba22.com</t>
-  </si>
-  <si>
-    <t>prueba23@prueba23.com</t>
+    <t>drivkraften@22jharots.com</t>
+  </si>
+  <si>
+    <t>uachit.bhadu@freakishstole.org</t>
+  </si>
+  <si>
+    <t>sismail.benabe@freeallapp.com</t>
+  </si>
+  <si>
+    <t>jayb.mysterious.l@mippery.com</t>
+  </si>
+  <si>
+    <t>zmadhuri1148@niwod.com</t>
+  </si>
+  <si>
+    <t>iali@epubll.site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +270,20 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -319,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,10 +371,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -645,12 +660,12 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
@@ -950,7 +965,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1063,7 +1078,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
@@ -1123,7 +1138,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
@@ -1324,9 +1339,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{35FFD10E-49B7-4BD3-AC6B-6E867CD04B87}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{07A45317-61B2-42DC-9140-E69A4CAB66D0}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{86097ED9-250A-4008-BD98-01FC6FCBB57E}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{B2BE74E0-D3B8-492B-8184-60D6D654DF51}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{8E9EFB56-5B95-433D-AD96-D4570D96E658}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{CDCCF8BF-A689-4B02-A58C-1406F6ADB81E}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{47957451-59B6-44D8-802A-945BAE082A11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/TDD/Users.xlsx
+++ b/TDD/Users.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Automatización\DesafioAutomatizacion\TDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806F5B8-FC90-4615-9BD9-7BBE1FF5A204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1CA58A-190F-4685-BEE6-49025B741A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Prueba 11</t>
   </si>
@@ -216,29 +217,47 @@
     <t>${alias}</t>
   </si>
   <si>
-    <t>drivkraften@22jharots.com</t>
-  </si>
-  <si>
-    <t>uachit.bhadu@freakishstole.org</t>
-  </si>
-  <si>
-    <t>sismail.benabe@freeallapp.com</t>
-  </si>
-  <si>
-    <t>jayb.mysterious.l@mippery.com</t>
-  </si>
-  <si>
-    <t>zmadhuri1148@niwod.com</t>
-  </si>
-  <si>
-    <t>iali@epubll.site</t>
+    <t>testemail02@test.com</t>
+  </si>
+  <si>
+    <t>testemail03@test.com</t>
+  </si>
+  <si>
+    <t>testemail04@test.com</t>
+  </si>
+  <si>
+    <t>testemail05@test.com</t>
+  </si>
+  <si>
+    <t>testemail06@test.com</t>
+  </si>
+  <si>
+    <t>testemail07@test.com</t>
+  </si>
+  <si>
+    <t>testemail08@test.com</t>
+  </si>
+  <si>
+    <t>testemail09@test.com</t>
+  </si>
+  <si>
+    <t>testemail10@test.com</t>
+  </si>
+  <si>
+    <t>testemail11@test.com</t>
+  </si>
+  <si>
+    <t>testemail13@test.com</t>
+  </si>
+  <si>
+    <t>testemail14@test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,13 +298,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,7 +384,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,7 +671,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1032,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1138,7 +1149,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
@@ -1339,14 +1350,72 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{07A45317-61B2-42DC-9140-E69A4CAB66D0}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{86097ED9-250A-4008-BD98-01FC6FCBB57E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{B2BE74E0-D3B8-492B-8184-60D6D654DF51}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{8E9EFB56-5B95-433D-AD96-D4570D96E658}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{CDCCF8BF-A689-4B02-A58C-1406F6ADB81E}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{47957451-59B6-44D8-802A-945BAE082A11}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{5A46EA1B-F5EC-4838-933C-B312E040E01C}"/>
+    <hyperlink ref="A2" r:id="rId2" display="testemail06@test.com" xr:uid="{D6C21022-AB5E-4F39-A033-70231E6279A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F28A5C2-B222-4607-A1A0-A58634F0962E}">
+  <dimension ref="B8:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{CF0EDAAC-AAE0-4966-8DD2-7E79362B39BA}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{B71EB53A-44D2-4056-AFA1-CE360C7E3E72}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{590C30B1-98AF-4486-96BC-E8558B13ED4C}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{51D9538A-64FD-4BF1-BC07-0369CF8F30F7}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{558A9B01-BE7A-44E2-855D-0AFD36D9F5F6}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{C085A276-0888-4689-A56B-B017DC1F8E0F}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{3DB8480D-91B5-4C42-B65E-A12508CB6D46}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>